--- a/UT.Vol.BLL/HelperFiles/Volunteer.xlsx
+++ b/UT.Vol.BLL/HelperFiles/Volunteer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Volunteer" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>jsmith@test.tes</t>
+  </si>
+  <si>
+    <t>SecondPhone</t>
+  </si>
+  <si>
+    <t>ThirdPhone</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,6 +427,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2345556789</v>
+      </c>
+      <c r="E2">
+        <v>3425556789</v>
+      </c>
+      <c r="F2">
+        <v>4235556789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>9875556432</v>
+      </c>
+      <c r="E3">
+        <v>8795556432</v>
+      </c>
+      <c r="F3">
+        <v>7985556432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -444,63 +527,6 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>2345556789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9875556432</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/UT.Vol.BLL/HelperFiles/Volunteer.xlsx
+++ b/UT.Vol.BLL/HelperFiles/Volunteer.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Volunteer" sheetId="1" r:id="rId1"/>
     <sheet name="VolPhone" sheetId="2" r:id="rId2"/>
     <sheet name="VolEmail" sheetId="3" r:id="rId3"/>
+    <sheet name="VolAddress" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ListVolunteers">Volunteer!$A:$C</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
   <si>
     <t>FirstName</t>
   </si>
@@ -66,6 +67,267 @@
   </si>
   <si>
     <t>ThirdPhone</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Taft</t>
+  </si>
+  <si>
+    <t>Millard</t>
+  </si>
+  <si>
+    <t>Fillmore</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>Eisenhower</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Gamaliel</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>wharrison@test.tes</t>
+  </si>
+  <si>
+    <t>wharding@test.tes</t>
+  </si>
+  <si>
+    <t>ugrant@test.tes</t>
+  </si>
+  <si>
+    <t>gbush@test.tes</t>
+  </si>
+  <si>
+    <t>deisenhower@test.tes</t>
+  </si>
+  <si>
+    <t>mfillmore@test.tes</t>
+  </si>
+  <si>
+    <t>wtaft@test.tes</t>
+  </si>
+  <si>
+    <t>jpolk@test.tes</t>
+  </si>
+  <si>
+    <t>FirstAddress1</t>
+  </si>
+  <si>
+    <t>FirstAddress2</t>
+  </si>
+  <si>
+    <t>FirstAddress3</t>
+  </si>
+  <si>
+    <t>FirstState</t>
+  </si>
+  <si>
+    <t>FirstCity</t>
+  </si>
+  <si>
+    <t>FirstZip</t>
+  </si>
+  <si>
+    <t>FirstZip4</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Juneau</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>Tallahassee</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>123 Test St.</t>
+  </si>
+  <si>
+    <t>234 Test St.</t>
+  </si>
+  <si>
+    <t>345 Test St.</t>
+  </si>
+  <si>
+    <t>456 Test St.</t>
+  </si>
+  <si>
+    <t>567 Test St.</t>
+  </si>
+  <si>
+    <t>678 Test St.</t>
+  </si>
+  <si>
+    <t>789 Test St.</t>
+  </si>
+  <si>
+    <t>890 Test St.</t>
+  </si>
+  <si>
+    <t>987 Test Ave.</t>
+  </si>
+  <si>
+    <t>876 Test Cir.</t>
+  </si>
+  <si>
+    <t>Test Building 1</t>
+  </si>
+  <si>
+    <t>Test Building 2</t>
+  </si>
+  <si>
+    <t>Test Building 3</t>
+  </si>
+  <si>
+    <t>Test Building 4</t>
+  </si>
+  <si>
+    <t>Test Building 5</t>
+  </si>
+  <si>
+    <t>Test Building 6</t>
+  </si>
+  <si>
+    <t>Test Building 7</t>
+  </si>
+  <si>
+    <t>Test Building 8</t>
+  </si>
+  <si>
+    <t>Test Building 9</t>
+  </si>
+  <si>
+    <t>Test Building 0</t>
+  </si>
+  <si>
+    <t>Test Line 1</t>
+  </si>
+  <si>
+    <t>Test Line 2</t>
+  </si>
+  <si>
+    <t>Test Line 3</t>
+  </si>
+  <si>
+    <t>Test Line 4</t>
+  </si>
+  <si>
+    <t>Test Line 5</t>
+  </si>
+  <si>
+    <t>Test Line 6</t>
+  </si>
+  <si>
+    <t>Test Line 7</t>
+  </si>
+  <si>
+    <t>Test Line 8</t>
+  </si>
+  <si>
+    <t>Test Line 9</t>
+  </si>
+  <si>
+    <t>Test Line 0</t>
   </si>
 </sst>
 </file>
@@ -383,13 +645,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -419,6 +686,91 @@
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -428,14 +780,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -498,6 +853,187 @@
         <v>7985556432</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:F11" si="0">D3+1</f>
+        <v>9875556433</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8795556433</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>7985556433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9875556434</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8795556434</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>7985556434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9875556435</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8795556435</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7985556435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9875556436</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8795556436</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>7985556436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9875556437</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8795556437</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7985556437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9875556438</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8795556438</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>7985556438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9875556439</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8795556439</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>7985556439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9875556440</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8795556440</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>7985556440</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -505,15 +1041,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,6 +1094,494 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>36101</v>
+      </c>
+      <c r="J2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>99801</v>
+      </c>
+      <c r="J3">
+        <f>J2+1</f>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>85001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J11" si="0">J3+1</f>
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>72201</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>94203</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>80201</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>6101</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>19901</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>32301</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>30301</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UT.Vol.BLL/HelperFiles/Volunteer.xlsx
+++ b/UT.Vol.BLL/HelperFiles/Volunteer.xlsx
@@ -5,12 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="917" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -40,7 +38,7 @@
     <t>Query</t>
   </si>
   <si>
-    <t>[Vol].[tblVolunteer]</t>
+    <t>[VolTeer].[Vol].[tblVolunteer]</t>
   </si>
   <si>
     <t>ffece320-d093-4ba7-a56c-6d7dc8127a4c</t>
@@ -198,6 +196,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,10 +267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -328,7 +327,7 @@
       </c>
       <c r="G2" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A2&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp; "' ,'" &amp; E2 &amp; "','" &amp; F2 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( 'ffece320-d093-4ba7-a56c-6d7dc8127a4c','Jacqualine','Yajaira' ,'Spruill','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( 'ffece320-d093-4ba7-a56c-6d7dc8127a4c','Jacqualine','Yajaira' ,'Spruill','1')</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,7 +351,7 @@
       </c>
       <c r="G3" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A3&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "' ,'" &amp; E3 &amp; "','" &amp; F3 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( 'eafcce35-6200-4c5a-aae1-6fad06f3467a','Gussie','Curtis' ,'Mckinny','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( 'eafcce35-6200-4c5a-aae1-6fad06f3467a','Gussie','Curtis' ,'Mckinny','1')</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,7 +375,7 @@
       </c>
       <c r="G4" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A4&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B4 &amp; "','" &amp; C4 &amp; "','" &amp; D4 &amp; "' ,'" &amp; E4 &amp; "','" &amp; F4 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( 'df91056c-6383-4fb6-b006-c6cee3df959b','Julia','Willena' ,'Corella','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( 'df91056c-6383-4fb6-b006-c6cee3df959b','Julia','Willena' ,'Corella','1')</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +399,7 @@
       </c>
       <c r="G5" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A5&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B5 &amp; "','" &amp; C5 &amp; "','" &amp; D5 &amp; "' ,'" &amp; E5 &amp; "','" &amp; F5 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '8b6d44cd-6fca-4d42-afbe-a91fa43c4f4b','Dakota','Joanie' ,'Greb','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '8b6d44cd-6fca-4d42-afbe-a91fa43c4f4b','Dakota','Joanie' ,'Greb','1')</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,7 +423,7 @@
       </c>
       <c r="G6" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A6&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B6 &amp; "','" &amp; C6 &amp; "','" &amp; D6 &amp; "' ,'" &amp; E6 &amp; "','" &amp; F6 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '9b588220-7bd4-415e-ae65-760b40929fdc','Mercedez','Lissette' ,'Auxier','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '9b588220-7bd4-415e-ae65-760b40929fdc','Mercedez','Lissette' ,'Auxier','1')</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +447,7 @@
       </c>
       <c r="G7" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A7&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B7 &amp; "','" &amp; C7 &amp; "','" &amp; D7 &amp; "' ,'" &amp; E7 &amp; "','" &amp; F7 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '8a2e0c86-fd6e-4db0-9e24-b32506a66b3b','Samual','Cristi' ,'Moone','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '8a2e0c86-fd6e-4db0-9e24-b32506a66b3b','Samual','Cristi' ,'Moone','1')</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -472,7 +471,7 @@
       </c>
       <c r="G8" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A8&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B8 &amp; "','" &amp; C8 &amp; "','" &amp; D8 &amp; "' ,'" &amp; E8 &amp; "','" &amp; F8 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '8ba077f8-4e8b-45af-99f3-cb099de2dfcc','Shannon','Angelic' ,'Leventhal','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '8ba077f8-4e8b-45af-99f3-cb099de2dfcc','Shannon','Angelic' ,'Leventhal','1')</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +495,7 @@
       </c>
       <c r="G9" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A9&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B9 &amp; "','" &amp; C9 &amp; "','" &amp; D9 &amp; "' ,'" &amp; E9 &amp; "','" &amp; F9 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '72f51403-53b0-4a74-ab2b-d7fdd9d5657c','Porsha','Trula' ,'Streeter','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '72f51403-53b0-4a74-ab2b-d7fdd9d5657c','Porsha','Trula' ,'Streeter','1')</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,7 +519,7 @@
       </c>
       <c r="G10" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A10&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B10 &amp; "','" &amp; C10 &amp; "','" &amp; D10 &amp; "' ,'" &amp; E10 &amp; "','" &amp; F10 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( 'ca8a0ae5-1a4a-49fe-af42-015b6a17274b','Racquel','Lovetta' ,'Tuma','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( 'ca8a0ae5-1a4a-49fe-af42-015b6a17274b','Racquel','Lovetta' ,'Tuma','1')</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,10 +543,11 @@
       </c>
       <c r="G11" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A11&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"],["&amp;F$1&amp;"]) VALUES ( '" &amp; B11 &amp; "','" &amp; C11 &amp; "','" &amp; D11 &amp; "' ,'" &amp; E11 &amp; "','" &amp; F11 &amp; "')"</f>
-        <v>INSERT INTO [Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '24a4e8af-c01e-4297-a1bb-f8356b259484','Luanna','Tangela' ,'Ruddell','0')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblVolunteer] ([VolID],[VolFirstName],[VolMiddleName],[VolLastName],[ActiveFlg]) VALUES ( '24a4e8af-c01e-4297-a1bb-f8356b259484','Luanna','Tangela' ,'Ruddell','0')</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -557,56 +557,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>